--- a/Observation.xlsx
+++ b/Observation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Application of Boosted Tree Classifier for Predicting Disease from Symptoms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Application-of-Boosted-Tree-Classifier-for-Predicting-Disease-from-Symptoms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC560D1-8642-4373-AAFE-54A564F927F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC644BAD-687A-4EAC-8506-3EAB32E2E58D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>Learning Rate</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>No. of batches per layer</t>
+  </si>
+  <si>
+    <t>Average Loss</t>
+  </si>
+  <si>
+    <t>Loss</t>
   </si>
 </sst>
 </file>
@@ -375,23 +384,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,12 +414,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -419,10 +440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E254EF9D-26E4-4AF8-872E-1C6A354B39CB}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,11 +451,14 @@
     <col min="1" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,12 +469,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -461,10 +494,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0C78ED-BD76-4EA0-85CF-3439E966A149}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,11 +506,14 @@
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,12 +524,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -504,10 +549,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E78E705-DC29-4E6D-98FF-DA0035A5F8E6}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,11 +560,14 @@
     <col min="1" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.5546875" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,12 +578,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Observation.xlsx
+++ b/Observation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Application-of-Boosted-Tree-Classifier-for-Predicting-Disease-from-Symptoms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanshraj Goel\Documents\GitHub\Application-of-Boosted-Tree-Classifier-for-Predicting-Disease-from-Symptoms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE42285-D3ED-4B51-AA71-91B644BB932D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB22751-A05F-41A1-9ACD-DC7BBB78A651}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Garvit" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +78,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,16 +108,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,10 +456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E254EF9D-26E4-4AF8-872E-1C6A354B39CB}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,6 +503,412 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.387</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2.387</v>
+      </c>
+      <c r="G2" s="3">
+        <v>49.9</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2.71</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.395</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.395</v>
+      </c>
+      <c r="G3" s="3">
+        <v>49.11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.71</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>98.98</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5.47</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>48.84</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.69</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="G6" s="3">
+        <v>132.05000000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5.46</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="F7" s="3">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="G7" s="3">
+        <v>47.62</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5.54</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>17.62</v>
+      </c>
+      <c r="F8" s="3">
+        <v>17.62</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44.07</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2.81</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45.44</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>42.93</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="G11" s="3">
+        <v>43.51</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2.76</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43.18</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="G13" s="3">
+        <v>41.99</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2.67</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="G14" s="3">
+        <v>41.88</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="G15" s="3">
+        <v>42.85</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2.81</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -496,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0C78ED-BD76-4EA0-85CF-3439E966A149}">
   <dimension ref="A1:I397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
@@ -12033,10 +12455,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E78E705-DC29-4E6D-98FF-DA0035A5F8E6}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12080,6 +12502,4472 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.75</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="F2">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="G2">
+        <v>43.77</v>
+      </c>
+      <c r="H2">
+        <v>2.67</v>
+      </c>
+      <c r="I2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.75</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>2.39</v>
+      </c>
+      <c r="F3">
+        <v>2.39</v>
+      </c>
+      <c r="G3">
+        <v>43.57</v>
+      </c>
+      <c r="H3">
+        <v>2.6</v>
+      </c>
+      <c r="I3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.75</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2.4</v>
+      </c>
+      <c r="F4">
+        <v>2.4</v>
+      </c>
+      <c r="G4">
+        <v>42.84</v>
+      </c>
+      <c r="H4">
+        <v>2.77</v>
+      </c>
+      <c r="I4">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.75</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>2.42</v>
+      </c>
+      <c r="F5">
+        <v>2.42</v>
+      </c>
+      <c r="G5">
+        <v>43.35</v>
+      </c>
+      <c r="H5">
+        <v>2.6339999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.75</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2.48</v>
+      </c>
+      <c r="F6">
+        <v>2.48</v>
+      </c>
+      <c r="G6">
+        <v>42.51</v>
+      </c>
+      <c r="H6">
+        <v>2.83</v>
+      </c>
+      <c r="I6">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.75</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>10.41</v>
+      </c>
+      <c r="F7">
+        <v>10.41</v>
+      </c>
+      <c r="G7">
+        <v>42.99</v>
+      </c>
+      <c r="H7">
+        <v>2.78</v>
+      </c>
+      <c r="I7">
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.75</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G8">
+        <v>43.86</v>
+      </c>
+      <c r="H8">
+        <v>2.74</v>
+      </c>
+      <c r="I8">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.75</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>22.52</v>
+      </c>
+      <c r="F9">
+        <v>22.52</v>
+      </c>
+      <c r="G9">
+        <v>43.23</v>
+      </c>
+      <c r="H9">
+        <v>2.97</v>
+      </c>
+      <c r="I9">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.75</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>2.4</v>
+      </c>
+      <c r="F10">
+        <v>2.4</v>
+      </c>
+      <c r="G10">
+        <v>46.73</v>
+      </c>
+      <c r="H10">
+        <v>2.74</v>
+      </c>
+      <c r="I10">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.75</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>2.4</v>
+      </c>
+      <c r="F11">
+        <v>2.4</v>
+      </c>
+      <c r="G11">
+        <v>45.64</v>
+      </c>
+      <c r="H11">
+        <v>2.98</v>
+      </c>
+      <c r="I11">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.75</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2.4</v>
+      </c>
+      <c r="F12">
+        <v>2.4</v>
+      </c>
+      <c r="G12">
+        <v>43.79</v>
+      </c>
+      <c r="H12">
+        <v>2.69</v>
+      </c>
+      <c r="I12">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.75</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>15.28</v>
+      </c>
+      <c r="F13">
+        <v>15.28</v>
+      </c>
+      <c r="G13">
+        <v>54.42</v>
+      </c>
+      <c r="H13">
+        <v>2.89</v>
+      </c>
+      <c r="I13">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.75</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>24.03</v>
+      </c>
+      <c r="F14">
+        <v>24.03</v>
+      </c>
+      <c r="G14">
+        <v>44.67</v>
+      </c>
+      <c r="H14">
+        <v>2.78</v>
+      </c>
+      <c r="I14">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.75</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2.39</v>
+      </c>
+      <c r="F15">
+        <v>2.39</v>
+      </c>
+      <c r="G15">
+        <v>76.760000000000005</v>
+      </c>
+      <c r="H15">
+        <v>5.7</v>
+      </c>
+      <c r="I15">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.75</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>2.4</v>
+      </c>
+      <c r="F16">
+        <v>2.4</v>
+      </c>
+      <c r="G16">
+        <v>43.69</v>
+      </c>
+      <c r="H16">
+        <v>2.91</v>
+      </c>
+      <c r="I16">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.75</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G17">
+        <v>70.06</v>
+      </c>
+      <c r="H17">
+        <v>6.09</v>
+      </c>
+      <c r="I17">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.75</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+      <c r="E18">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F18">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G18">
+        <v>84.49</v>
+      </c>
+      <c r="H18">
+        <v>5.84</v>
+      </c>
+      <c r="I18">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.75</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>2.39</v>
+      </c>
+      <c r="F19">
+        <v>2.39</v>
+      </c>
+      <c r="G19">
+        <v>44.89</v>
+      </c>
+      <c r="H19">
+        <v>2.84</v>
+      </c>
+      <c r="I19">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.75</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>2.38</v>
+      </c>
+      <c r="F20">
+        <v>2.38</v>
+      </c>
+      <c r="G20">
+        <v>87.83</v>
+      </c>
+      <c r="H20">
+        <v>5.62</v>
+      </c>
+      <c r="I20">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.75</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="F21">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="G21">
+        <v>74.45</v>
+      </c>
+      <c r="H21">
+        <v>5.63</v>
+      </c>
+      <c r="I21">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.75</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>2.48</v>
+      </c>
+      <c r="F22">
+        <v>2.48</v>
+      </c>
+      <c r="G22">
+        <v>44.02</v>
+      </c>
+      <c r="H22">
+        <v>2.74</v>
+      </c>
+      <c r="I22">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.75</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <v>3.22</v>
+      </c>
+      <c r="F23">
+        <v>3.22</v>
+      </c>
+      <c r="G23">
+        <v>44.36</v>
+      </c>
+      <c r="H23">
+        <v>2.9</v>
+      </c>
+      <c r="I23">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.75</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>2.42</v>
+      </c>
+      <c r="F24">
+        <v>2.42</v>
+      </c>
+      <c r="G24">
+        <v>47.54</v>
+      </c>
+      <c r="H24">
+        <v>2.71</v>
+      </c>
+      <c r="I24">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.75</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>2.48</v>
+      </c>
+      <c r="F25">
+        <v>2.48</v>
+      </c>
+      <c r="G25">
+        <v>41.99</v>
+      </c>
+      <c r="H25">
+        <v>2.76</v>
+      </c>
+      <c r="I25">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.75</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>30.49</v>
+      </c>
+      <c r="F26">
+        <v>30.49</v>
+      </c>
+      <c r="G26">
+        <v>43.22</v>
+      </c>
+      <c r="H26">
+        <v>2.73</v>
+      </c>
+      <c r="I26">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.75</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>31.28</v>
+      </c>
+      <c r="F27">
+        <v>31.28</v>
+      </c>
+      <c r="G27">
+        <v>75.03</v>
+      </c>
+      <c r="H27">
+        <v>5.59</v>
+      </c>
+      <c r="I27">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.75</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>7.28</v>
+      </c>
+      <c r="F28">
+        <v>7.28</v>
+      </c>
+      <c r="G28">
+        <v>42.8</v>
+      </c>
+      <c r="H28">
+        <v>2.61</v>
+      </c>
+      <c r="I28">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.75</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>45</v>
+      </c>
+      <c r="E29">
+        <v>2.39</v>
+      </c>
+      <c r="F29">
+        <v>2.39</v>
+      </c>
+      <c r="G29">
+        <v>43.99</v>
+      </c>
+      <c r="H29">
+        <v>2.79</v>
+      </c>
+      <c r="I29">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.75</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>32.96</v>
+      </c>
+      <c r="F30">
+        <v>32.96</v>
+      </c>
+      <c r="G30">
+        <v>87.25</v>
+      </c>
+      <c r="H30">
+        <v>5.61</v>
+      </c>
+      <c r="I30">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.75</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>2.39</v>
+      </c>
+      <c r="F31">
+        <v>2.39</v>
+      </c>
+      <c r="G31">
+        <v>86.24</v>
+      </c>
+      <c r="H31">
+        <v>5.73</v>
+      </c>
+      <c r="I31">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.75</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>2.39</v>
+      </c>
+      <c r="F32">
+        <v>2.39</v>
+      </c>
+      <c r="G32">
+        <v>87.01</v>
+      </c>
+      <c r="H32">
+        <v>5.64</v>
+      </c>
+      <c r="I32">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.75</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>35</v>
+      </c>
+      <c r="E33">
+        <v>2.39</v>
+      </c>
+      <c r="F33">
+        <v>2.39</v>
+      </c>
+      <c r="G33">
+        <v>83.38</v>
+      </c>
+      <c r="H33">
+        <v>5.61</v>
+      </c>
+      <c r="I33">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.75</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>45</v>
+      </c>
+      <c r="E34">
+        <v>2.38</v>
+      </c>
+      <c r="F34">
+        <v>2.38</v>
+      </c>
+      <c r="G34">
+        <v>86.68</v>
+      </c>
+      <c r="H34">
+        <v>5.72</v>
+      </c>
+      <c r="I34">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.75</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>2.38</v>
+      </c>
+      <c r="F35">
+        <v>2.38</v>
+      </c>
+      <c r="G35">
+        <v>87.48</v>
+      </c>
+      <c r="H35">
+        <v>5.64</v>
+      </c>
+      <c r="I35">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.75</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>15.2</v>
+      </c>
+      <c r="F36">
+        <v>15.2</v>
+      </c>
+      <c r="G36">
+        <v>44.31</v>
+      </c>
+      <c r="H36">
+        <v>2.77</v>
+      </c>
+      <c r="I36">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.75</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2.39</v>
+      </c>
+      <c r="F37">
+        <v>2.39</v>
+      </c>
+      <c r="G37">
+        <v>41.79</v>
+      </c>
+      <c r="H37">
+        <v>2.65</v>
+      </c>
+      <c r="I37">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.75</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>2.38</v>
+      </c>
+      <c r="F38">
+        <v>2.38</v>
+      </c>
+      <c r="G38">
+        <v>54.32</v>
+      </c>
+      <c r="H38">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="I38">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.75</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>45</v>
+      </c>
+      <c r="E39">
+        <v>27.41</v>
+      </c>
+      <c r="F39">
+        <v>27.41</v>
+      </c>
+      <c r="G39">
+        <v>51.49</v>
+      </c>
+      <c r="H39">
+        <v>3.84</v>
+      </c>
+      <c r="I39">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.75</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>2.4</v>
+      </c>
+      <c r="F40">
+        <v>2.4</v>
+      </c>
+      <c r="G40">
+        <v>47.75</v>
+      </c>
+      <c r="H40">
+        <v>2.93</v>
+      </c>
+      <c r="I40">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.75</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>2.42</v>
+      </c>
+      <c r="F41">
+        <v>2.42</v>
+      </c>
+      <c r="G41">
+        <v>45.83</v>
+      </c>
+      <c r="H41">
+        <v>2.85</v>
+      </c>
+      <c r="I41">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0.75</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>2.42</v>
+      </c>
+      <c r="F42">
+        <v>2.42</v>
+      </c>
+      <c r="G42">
+        <v>45.16</v>
+      </c>
+      <c r="H42">
+        <v>2.92</v>
+      </c>
+      <c r="I42">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0.75</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>23.2</v>
+      </c>
+      <c r="F43">
+        <v>23.2</v>
+      </c>
+      <c r="G43">
+        <v>45.94</v>
+      </c>
+      <c r="H43">
+        <v>2.9</v>
+      </c>
+      <c r="I43">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.75</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F44">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G44">
+        <v>43.45</v>
+      </c>
+      <c r="H44">
+        <v>2.76</v>
+      </c>
+      <c r="I44">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0.75</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>2.44</v>
+      </c>
+      <c r="F45">
+        <v>2.44</v>
+      </c>
+      <c r="G45">
+        <v>51.98</v>
+      </c>
+      <c r="H45">
+        <v>2.89</v>
+      </c>
+      <c r="I45">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0.75</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>2.39</v>
+      </c>
+      <c r="F46">
+        <v>2.39</v>
+      </c>
+      <c r="G46">
+        <v>50.51</v>
+      </c>
+      <c r="H46">
+        <v>2.93</v>
+      </c>
+      <c r="I46">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>0.75</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>3.19</v>
+      </c>
+      <c r="F47">
+        <v>3.19</v>
+      </c>
+      <c r="G47">
+        <v>50.59</v>
+      </c>
+      <c r="H47">
+        <v>2.89</v>
+      </c>
+      <c r="I47">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0.75</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>35</v>
+      </c>
+      <c r="E48">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F48">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G48">
+        <v>48.17</v>
+      </c>
+      <c r="H48">
+        <v>2.84</v>
+      </c>
+      <c r="I48">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>0.75</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>45</v>
+      </c>
+      <c r="E49">
+        <v>30.49</v>
+      </c>
+      <c r="F49">
+        <v>30.49</v>
+      </c>
+      <c r="G49">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="H49">
+        <v>3.08</v>
+      </c>
+      <c r="I49">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0.85</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>2.4</v>
+      </c>
+      <c r="F50">
+        <v>2.4</v>
+      </c>
+      <c r="G50">
+        <v>83.13</v>
+      </c>
+      <c r="H50">
+        <v>5.84</v>
+      </c>
+      <c r="I50">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.85</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>28.87</v>
+      </c>
+      <c r="F51">
+        <v>28.87</v>
+      </c>
+      <c r="G51">
+        <v>83.77</v>
+      </c>
+      <c r="H51">
+        <v>2.6</v>
+      </c>
+      <c r="I51">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0.85</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <v>2.39</v>
+      </c>
+      <c r="F52">
+        <v>2.39</v>
+      </c>
+      <c r="G52">
+        <v>42.03</v>
+      </c>
+      <c r="H52">
+        <v>2.86</v>
+      </c>
+      <c r="I52">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0.85</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>35</v>
+      </c>
+      <c r="E53">
+        <v>4.03</v>
+      </c>
+      <c r="F53">
+        <v>4.03</v>
+      </c>
+      <c r="G53">
+        <v>73.7</v>
+      </c>
+      <c r="H53">
+        <v>2.76</v>
+      </c>
+      <c r="I53">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0.85</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>45</v>
+      </c>
+      <c r="E54">
+        <v>2.37</v>
+      </c>
+      <c r="F54">
+        <v>2.37</v>
+      </c>
+      <c r="G54">
+        <v>87.22</v>
+      </c>
+      <c r="H54">
+        <v>5.79</v>
+      </c>
+      <c r="I54">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0.85</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="F55">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="G55">
+        <v>85.94</v>
+      </c>
+      <c r="H55">
+        <v>5.66</v>
+      </c>
+      <c r="I55">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0.85</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F56">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G56">
+        <v>77.69</v>
+      </c>
+      <c r="H56">
+        <v>5.62</v>
+      </c>
+      <c r="I56">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0.85</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F57">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G57">
+        <v>86.63</v>
+      </c>
+      <c r="H57">
+        <v>5.61</v>
+      </c>
+      <c r="I57">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0.85</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>35</v>
+      </c>
+      <c r="E58">
+        <v>2.4</v>
+      </c>
+      <c r="F58">
+        <v>2.4</v>
+      </c>
+      <c r="G58">
+        <v>86.44</v>
+      </c>
+      <c r="H58">
+        <v>5.71</v>
+      </c>
+      <c r="I58">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0.85</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>45</v>
+      </c>
+      <c r="E59">
+        <v>2.41</v>
+      </c>
+      <c r="F59">
+        <v>2.41</v>
+      </c>
+      <c r="G59">
+        <v>87.81</v>
+      </c>
+      <c r="H59">
+        <v>5.93</v>
+      </c>
+      <c r="I59">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0.85</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>2.41</v>
+      </c>
+      <c r="F60">
+        <v>2.41</v>
+      </c>
+      <c r="G60">
+        <v>43.65</v>
+      </c>
+      <c r="H60">
+        <v>2.94</v>
+      </c>
+      <c r="I60">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0.85</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+      <c r="E61">
+        <v>11.24</v>
+      </c>
+      <c r="F61">
+        <v>11.24</v>
+      </c>
+      <c r="G61">
+        <v>86.43</v>
+      </c>
+      <c r="H61">
+        <v>5.62</v>
+      </c>
+      <c r="I61">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0.85</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>28.9</v>
+      </c>
+      <c r="F62">
+        <v>28.9</v>
+      </c>
+      <c r="G62">
+        <v>85.6</v>
+      </c>
+      <c r="H62">
+        <v>5.57</v>
+      </c>
+      <c r="I62">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0.85</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>35</v>
+      </c>
+      <c r="E63">
+        <v>2.39</v>
+      </c>
+      <c r="F63">
+        <v>2.39</v>
+      </c>
+      <c r="G63">
+        <v>86.41</v>
+      </c>
+      <c r="H63">
+        <v>5.7</v>
+      </c>
+      <c r="I63">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0.85</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>45</v>
+      </c>
+      <c r="E64">
+        <v>2.41</v>
+      </c>
+      <c r="F64">
+        <v>2.41</v>
+      </c>
+      <c r="G64">
+        <v>87.58</v>
+      </c>
+      <c r="H64">
+        <v>5.63</v>
+      </c>
+      <c r="I64">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0.85</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>2.41</v>
+      </c>
+      <c r="F65">
+        <v>2.41</v>
+      </c>
+      <c r="G65">
+        <v>43.48</v>
+      </c>
+      <c r="H65">
+        <v>2.73</v>
+      </c>
+      <c r="I65">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0.85</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>2.38</v>
+      </c>
+      <c r="F66">
+        <v>2.38</v>
+      </c>
+      <c r="G66">
+        <v>86.33</v>
+      </c>
+      <c r="H66">
+        <v>5.71</v>
+      </c>
+      <c r="I66">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0.85</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="E67">
+        <v>34.53</v>
+      </c>
+      <c r="F67">
+        <v>34.53</v>
+      </c>
+      <c r="G67">
+        <v>43.27</v>
+      </c>
+      <c r="H67">
+        <v>2.62</v>
+      </c>
+      <c r="I67">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0.85</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>35</v>
+      </c>
+      <c r="E68">
+        <v>28.95</v>
+      </c>
+      <c r="F68">
+        <v>28.95</v>
+      </c>
+      <c r="G68">
+        <v>85.86</v>
+      </c>
+      <c r="H68">
+        <v>5.45</v>
+      </c>
+      <c r="I68">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0.85</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>45</v>
+      </c>
+      <c r="E69">
+        <v>2.39</v>
+      </c>
+      <c r="F69">
+        <v>2.39</v>
+      </c>
+      <c r="G69">
+        <v>42.44</v>
+      </c>
+      <c r="H69">
+        <v>2.77</v>
+      </c>
+      <c r="I69">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0.85</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>2.4</v>
+      </c>
+      <c r="F70">
+        <v>2.4</v>
+      </c>
+      <c r="G70">
+        <v>56.37</v>
+      </c>
+      <c r="H70">
+        <v>6.67</v>
+      </c>
+      <c r="I70">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0.85</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>2.42</v>
+      </c>
+      <c r="F71">
+        <v>2.42</v>
+      </c>
+      <c r="G71">
+        <v>84.55</v>
+      </c>
+      <c r="H71">
+        <v>3.5</v>
+      </c>
+      <c r="I71">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0.85</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>25</v>
+      </c>
+      <c r="E72">
+        <v>2.48</v>
+      </c>
+      <c r="F72">
+        <v>2.48</v>
+      </c>
+      <c r="G72">
+        <v>91.51</v>
+      </c>
+      <c r="H72">
+        <v>6.17</v>
+      </c>
+      <c r="I72">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0.85</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>35</v>
+      </c>
+      <c r="E73">
+        <v>27.29</v>
+      </c>
+      <c r="F73">
+        <v>27.29</v>
+      </c>
+      <c r="G73">
+        <v>59.43</v>
+      </c>
+      <c r="H73">
+        <v>5.84</v>
+      </c>
+      <c r="I73">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0.85</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>45</v>
+      </c>
+      <c r="E74">
+        <v>31.3</v>
+      </c>
+      <c r="F74">
+        <v>31.3</v>
+      </c>
+      <c r="G74">
+        <v>89.7</v>
+      </c>
+      <c r="H74">
+        <v>5.87</v>
+      </c>
+      <c r="I74">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0.85</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>31.31</v>
+      </c>
+      <c r="F75">
+        <v>31.31</v>
+      </c>
+      <c r="G75">
+        <v>97.61</v>
+      </c>
+      <c r="H75">
+        <v>5.71</v>
+      </c>
+      <c r="I75">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0.85</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F76">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G76">
+        <v>89.59</v>
+      </c>
+      <c r="H76">
+        <v>5.75</v>
+      </c>
+      <c r="I76">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0.85</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F77">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G77">
+        <v>90.45</v>
+      </c>
+      <c r="H77">
+        <v>5.78</v>
+      </c>
+      <c r="I77">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0.85</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>35</v>
+      </c>
+      <c r="E78">
+        <v>2.4</v>
+      </c>
+      <c r="F78">
+        <v>2.4</v>
+      </c>
+      <c r="G78">
+        <v>88.92</v>
+      </c>
+      <c r="H78">
+        <v>5.76</v>
+      </c>
+      <c r="I78">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0.85</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>45</v>
+      </c>
+      <c r="E79">
+        <v>24.93</v>
+      </c>
+      <c r="F79">
+        <v>24.93</v>
+      </c>
+      <c r="G79">
+        <v>88.77</v>
+      </c>
+      <c r="H79">
+        <v>5.56</v>
+      </c>
+      <c r="I79">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>0.85</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>2.37</v>
+      </c>
+      <c r="F80">
+        <v>2.37</v>
+      </c>
+      <c r="G80">
+        <v>87.64</v>
+      </c>
+      <c r="H80">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="I80">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>0.85</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>15</v>
+      </c>
+      <c r="E81">
+        <v>32.9</v>
+      </c>
+      <c r="F81">
+        <v>32.9</v>
+      </c>
+      <c r="G81">
+        <v>44.64</v>
+      </c>
+      <c r="H81">
+        <v>2.79</v>
+      </c>
+      <c r="I81">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>0.85</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>25</v>
+      </c>
+      <c r="E82">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="F82">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="G82">
+        <v>88.83</v>
+      </c>
+      <c r="H82">
+        <v>5.82</v>
+      </c>
+      <c r="I82">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0.85</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>35</v>
+      </c>
+      <c r="E83">
+        <v>33.76</v>
+      </c>
+      <c r="F83">
+        <v>33.76</v>
+      </c>
+      <c r="G83">
+        <v>84.09</v>
+      </c>
+      <c r="H83">
+        <v>5.85</v>
+      </c>
+      <c r="I83">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0.85</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>45</v>
+      </c>
+      <c r="E84">
+        <v>7.23</v>
+      </c>
+      <c r="F84">
+        <v>7.23</v>
+      </c>
+      <c r="G84">
+        <v>89.04</v>
+      </c>
+      <c r="H84">
+        <v>5.8</v>
+      </c>
+      <c r="I84">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0.85</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>2.4</v>
+      </c>
+      <c r="F85">
+        <v>2.4</v>
+      </c>
+      <c r="G85">
+        <v>91.71</v>
+      </c>
+      <c r="H85">
+        <v>5.88</v>
+      </c>
+      <c r="I85">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0.85</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>15</v>
+      </c>
+      <c r="E86">
+        <v>2.41</v>
+      </c>
+      <c r="F86">
+        <v>2.41</v>
+      </c>
+      <c r="G86">
+        <v>90.49</v>
+      </c>
+      <c r="H86">
+        <v>5.85</v>
+      </c>
+      <c r="I86">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>25</v>
+      </c>
+      <c r="E87">
+        <v>2.4</v>
+      </c>
+      <c r="F87">
+        <v>2.4</v>
+      </c>
+      <c r="G87">
+        <v>90.11</v>
+      </c>
+      <c r="H87">
+        <v>5.75</v>
+      </c>
+      <c r="I87">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0.85</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>35</v>
+      </c>
+      <c r="E88">
+        <v>2.4</v>
+      </c>
+      <c r="F88">
+        <v>2.4</v>
+      </c>
+      <c r="G88">
+        <v>89.86</v>
+      </c>
+      <c r="H88">
+        <v>5.81</v>
+      </c>
+      <c r="I88">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0.85</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>45</v>
+      </c>
+      <c r="E89">
+        <v>20.74</v>
+      </c>
+      <c r="F89">
+        <v>20.74</v>
+      </c>
+      <c r="G89">
+        <v>89.57</v>
+      </c>
+      <c r="H89">
+        <v>5.65</v>
+      </c>
+      <c r="I89">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.85</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F90">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G90">
+        <v>45.43</v>
+      </c>
+      <c r="H90">
+        <v>2.75</v>
+      </c>
+      <c r="I90">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0.85</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>15</v>
+      </c>
+      <c r="E91">
+        <v>2.46</v>
+      </c>
+      <c r="F91">
+        <v>2.46</v>
+      </c>
+      <c r="G91">
+        <v>43.87</v>
+      </c>
+      <c r="H91">
+        <v>2.6</v>
+      </c>
+      <c r="I91">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0.85</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>25</v>
+      </c>
+      <c r="E92">
+        <v>2.4</v>
+      </c>
+      <c r="F92">
+        <v>2.4</v>
+      </c>
+      <c r="G92">
+        <v>43.04</v>
+      </c>
+      <c r="H92">
+        <v>2.57</v>
+      </c>
+      <c r="I92">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>0.85</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>9</v>
+      </c>
+      <c r="D93">
+        <v>35</v>
+      </c>
+      <c r="E93">
+        <v>34.53</v>
+      </c>
+      <c r="F93">
+        <v>34.53</v>
+      </c>
+      <c r="G93">
+        <v>42.52</v>
+      </c>
+      <c r="H93">
+        <v>2.82</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0.85</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>45</v>
+      </c>
+      <c r="E94">
+        <v>8.07</v>
+      </c>
+      <c r="F94">
+        <v>8.07</v>
+      </c>
+      <c r="G94">
+        <v>42.63</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0.85</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>2.38</v>
+      </c>
+      <c r="F95">
+        <v>2.38</v>
+      </c>
+      <c r="G95">
+        <v>49.421999999999997</v>
+      </c>
+      <c r="H95">
+        <v>2.81</v>
+      </c>
+      <c r="I95">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0.85</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>15</v>
+      </c>
+      <c r="E96">
+        <v>32.17</v>
+      </c>
+      <c r="F96">
+        <v>32.17</v>
+      </c>
+      <c r="G96">
+        <v>47.27</v>
+      </c>
+      <c r="H96">
+        <v>2.76</v>
+      </c>
+      <c r="I96">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.85</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>25</v>
+      </c>
+      <c r="E97">
+        <v>2.4</v>
+      </c>
+      <c r="F97">
+        <v>2.4</v>
+      </c>
+      <c r="G97">
+        <v>49.45</v>
+      </c>
+      <c r="H97">
+        <v>2.81</v>
+      </c>
+      <c r="I97">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0.85</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>35</v>
+      </c>
+      <c r="E98">
+        <v>2.38</v>
+      </c>
+      <c r="F98">
+        <v>2.38</v>
+      </c>
+      <c r="G98">
+        <v>49.12</v>
+      </c>
+      <c r="H98">
+        <v>3.02</v>
+      </c>
+      <c r="I98">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0.85</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>45</v>
+      </c>
+      <c r="E99">
+        <v>2.39</v>
+      </c>
+      <c r="F99">
+        <v>2.39</v>
+      </c>
+      <c r="G99">
+        <v>47.68</v>
+      </c>
+      <c r="H99">
+        <v>2.99</v>
+      </c>
+      <c r="I99">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0.95</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>2.4</v>
+      </c>
+      <c r="F100">
+        <v>2.4</v>
+      </c>
+      <c r="G100">
+        <v>91.43</v>
+      </c>
+      <c r="H100">
+        <v>6.56</v>
+      </c>
+      <c r="I100">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>0.95</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>15</v>
+      </c>
+      <c r="E101">
+        <v>24.86</v>
+      </c>
+      <c r="F101">
+        <v>24.86</v>
+      </c>
+      <c r="G101">
+        <v>99.3</v>
+      </c>
+      <c r="H101">
+        <v>6.42</v>
+      </c>
+      <c r="I101">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0.95</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>25</v>
+      </c>
+      <c r="E102">
+        <v>2.38</v>
+      </c>
+      <c r="F102">
+        <v>2.38</v>
+      </c>
+      <c r="G102">
+        <v>80.08</v>
+      </c>
+      <c r="H102">
+        <v>6.09</v>
+      </c>
+      <c r="I102">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0.95</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>35</v>
+      </c>
+      <c r="E103">
+        <v>6.46</v>
+      </c>
+      <c r="F103">
+        <v>6.46</v>
+      </c>
+      <c r="G103">
+        <v>88.14</v>
+      </c>
+      <c r="H103">
+        <v>6</v>
+      </c>
+      <c r="I103">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0.95</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>45</v>
+      </c>
+      <c r="E104">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F104">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G104">
+        <v>89.19</v>
+      </c>
+      <c r="H104">
+        <v>5.77</v>
+      </c>
+      <c r="I104">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>0.95</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>2.42</v>
+      </c>
+      <c r="F105">
+        <v>2.42</v>
+      </c>
+      <c r="G105">
+        <v>89.7</v>
+      </c>
+      <c r="H105">
+        <v>6.3</v>
+      </c>
+      <c r="I105">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0.95</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>15</v>
+      </c>
+      <c r="E106">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="F106">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="G106">
+        <v>89.23</v>
+      </c>
+      <c r="H106">
+        <v>5.8</v>
+      </c>
+      <c r="I106">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0.95</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>25</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="F107">
+        <v>2.39</v>
+      </c>
+      <c r="G107">
+        <v>83.55</v>
+      </c>
+      <c r="H107">
+        <v>6.72</v>
+      </c>
+      <c r="I107">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0.95</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>35</v>
+      </c>
+      <c r="E108">
+        <v>2.38</v>
+      </c>
+      <c r="F108">
+        <v>2.38</v>
+      </c>
+      <c r="G108">
+        <v>101.6</v>
+      </c>
+      <c r="H108">
+        <v>7.2</v>
+      </c>
+      <c r="I108">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>0.95</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>45</v>
+      </c>
+      <c r="E109">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="F109">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="G109">
+        <v>102.57</v>
+      </c>
+      <c r="H109">
+        <v>6.5</v>
+      </c>
+      <c r="I109">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>0.95</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>2.4</v>
+      </c>
+      <c r="F110">
+        <v>2.4</v>
+      </c>
+      <c r="G110">
+        <v>83.72</v>
+      </c>
+      <c r="H110">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I110">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>0.95</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>15</v>
+      </c>
+      <c r="E111">
+        <v>27.26</v>
+      </c>
+      <c r="F111">
+        <v>27.26</v>
+      </c>
+      <c r="G111">
+        <v>101.55</v>
+      </c>
+      <c r="H111">
+        <v>6.59</v>
+      </c>
+      <c r="I111">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0.95</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>25</v>
+      </c>
+      <c r="E112">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F112">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G112">
+        <v>102.1</v>
+      </c>
+      <c r="H112">
+        <v>6.62</v>
+      </c>
+      <c r="I112">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>0.95</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>35</v>
+      </c>
+      <c r="E113">
+        <v>22.47</v>
+      </c>
+      <c r="F113">
+        <v>22.47</v>
+      </c>
+      <c r="G113">
+        <v>101.67</v>
+      </c>
+      <c r="H113">
+        <v>6.94</v>
+      </c>
+      <c r="I113">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>0.95</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>45</v>
+      </c>
+      <c r="E114">
+        <v>33.72</v>
+      </c>
+      <c r="F114">
+        <v>33.72</v>
+      </c>
+      <c r="G114">
+        <v>88.45</v>
+      </c>
+      <c r="H114">
+        <v>3.08</v>
+      </c>
+      <c r="I114">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>0.95</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>2.41</v>
+      </c>
+      <c r="F115">
+        <v>2.41</v>
+      </c>
+      <c r="G115">
+        <v>95.38</v>
+      </c>
+      <c r="H115">
+        <v>6.26</v>
+      </c>
+      <c r="I115">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>0.95</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>15</v>
+      </c>
+      <c r="E116">
+        <v>2.39</v>
+      </c>
+      <c r="F116">
+        <v>2.39</v>
+      </c>
+      <c r="G116">
+        <v>50.66</v>
+      </c>
+      <c r="H116">
+        <v>3.12</v>
+      </c>
+      <c r="I116">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>0.95</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>25</v>
+      </c>
+      <c r="E117">
+        <v>2.4</v>
+      </c>
+      <c r="F117">
+        <v>2.4</v>
+      </c>
+      <c r="G117">
+        <v>92.45</v>
+      </c>
+      <c r="H117">
+        <v>6.39</v>
+      </c>
+      <c r="I117">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>0.95</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>35</v>
+      </c>
+      <c r="E118">
+        <v>24.12</v>
+      </c>
+      <c r="F118">
+        <v>24.12</v>
+      </c>
+      <c r="G118">
+        <v>80.03</v>
+      </c>
+      <c r="H118">
+        <v>2.79</v>
+      </c>
+      <c r="I118">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>0.95</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>45</v>
+      </c>
+      <c r="E119">
+        <v>2.44</v>
+      </c>
+      <c r="F119">
+        <v>2.44</v>
+      </c>
+      <c r="G119">
+        <v>84.13</v>
+      </c>
+      <c r="H119">
+        <v>6.54</v>
+      </c>
+      <c r="I119">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>0.95</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>2.44</v>
+      </c>
+      <c r="F120">
+        <v>2.44</v>
+      </c>
+      <c r="G120">
+        <v>95.41</v>
+      </c>
+      <c r="H120">
+        <v>6.8</v>
+      </c>
+      <c r="I120">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>0.95</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>15</v>
+      </c>
+      <c r="E121">
+        <v>2.4</v>
+      </c>
+      <c r="F121">
+        <v>2.4</v>
+      </c>
+      <c r="G121">
+        <v>97.65</v>
+      </c>
+      <c r="H121">
+        <v>6.35</v>
+      </c>
+      <c r="I121">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>0.95</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>25</v>
+      </c>
+      <c r="E122">
+        <v>28.21</v>
+      </c>
+      <c r="F122">
+        <v>28.21</v>
+      </c>
+      <c r="G122">
+        <v>98.81</v>
+      </c>
+      <c r="H122">
+        <v>6.4</v>
+      </c>
+      <c r="I122">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>0.95</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>35</v>
+      </c>
+      <c r="E123">
+        <v>2.39</v>
+      </c>
+      <c r="F123">
+        <v>2.39</v>
+      </c>
+      <c r="G123">
+        <v>89.95</v>
+      </c>
+      <c r="H123">
+        <v>3.4</v>
+      </c>
+      <c r="I123">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>0.95</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>45</v>
+      </c>
+      <c r="E124">
+        <v>22.41</v>
+      </c>
+      <c r="F124">
+        <v>22.41</v>
+      </c>
+      <c r="G124">
+        <v>94.38</v>
+      </c>
+      <c r="H124">
+        <v>6.84</v>
+      </c>
+      <c r="I124">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>0.95</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>2.4</v>
+      </c>
+      <c r="F125">
+        <v>2.4</v>
+      </c>
+      <c r="G125">
+        <v>86.53</v>
+      </c>
+      <c r="H125">
+        <v>6.87</v>
+      </c>
+      <c r="I125">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>0.95</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>6</v>
+      </c>
+      <c r="D126">
+        <v>15</v>
+      </c>
+      <c r="E126">
+        <v>24.09</v>
+      </c>
+      <c r="F126">
+        <v>24.09</v>
+      </c>
+      <c r="G126">
+        <v>91.42</v>
+      </c>
+      <c r="H126">
+        <v>5.65</v>
+      </c>
+      <c r="I126">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>0.95</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>25</v>
+      </c>
+      <c r="E127">
+        <v>2.4</v>
+      </c>
+      <c r="F127">
+        <v>2.4</v>
+      </c>
+      <c r="G127">
+        <v>94.82</v>
+      </c>
+      <c r="H127">
+        <v>2.98</v>
+      </c>
+      <c r="I127">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>0.95</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>6</v>
+      </c>
+      <c r="D128">
+        <v>35</v>
+      </c>
+      <c r="E128">
+        <v>2.48</v>
+      </c>
+      <c r="F128">
+        <v>2.48</v>
+      </c>
+      <c r="G128">
+        <v>41.35</v>
+      </c>
+      <c r="H128">
+        <v>2.57</v>
+      </c>
+      <c r="I128">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0.95</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>45</v>
+      </c>
+      <c r="E129">
+        <v>2.38</v>
+      </c>
+      <c r="F129">
+        <v>2.38</v>
+      </c>
+      <c r="G129">
+        <v>43.14</v>
+      </c>
+      <c r="H129">
+        <v>2.78</v>
+      </c>
+      <c r="I129">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>0.95</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>2.39</v>
+      </c>
+      <c r="F130">
+        <v>2.39</v>
+      </c>
+      <c r="G130">
+        <v>42.9</v>
+      </c>
+      <c r="H130">
+        <v>2.59</v>
+      </c>
+      <c r="I130">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>0.95</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>7</v>
+      </c>
+      <c r="D131">
+        <v>15</v>
+      </c>
+      <c r="E131">
+        <v>21.67</v>
+      </c>
+      <c r="F131">
+        <v>21.67</v>
+      </c>
+      <c r="G131">
+        <v>40.11</v>
+      </c>
+      <c r="H131">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I131">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>0.95</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>7</v>
+      </c>
+      <c r="D132">
+        <v>25</v>
+      </c>
+      <c r="E132">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F132">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G132">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="H132">
+        <v>2.62</v>
+      </c>
+      <c r="I132">
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>0.95</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>7</v>
+      </c>
+      <c r="D133">
+        <v>35</v>
+      </c>
+      <c r="E133">
+        <v>26.67</v>
+      </c>
+      <c r="F133">
+        <v>26.67</v>
+      </c>
+      <c r="G133">
+        <v>41.9</v>
+      </c>
+      <c r="H133">
+        <v>2.7</v>
+      </c>
+      <c r="I133">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>0.95</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>45</v>
+      </c>
+      <c r="E134">
+        <v>2.4</v>
+      </c>
+      <c r="F134">
+        <v>2.4</v>
+      </c>
+      <c r="G134">
+        <v>43.28</v>
+      </c>
+      <c r="H134">
+        <v>2.65</v>
+      </c>
+      <c r="I134">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>0.95</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>32.93</v>
+      </c>
+      <c r="F135">
+        <v>32.93</v>
+      </c>
+      <c r="G135">
+        <v>41.87</v>
+      </c>
+      <c r="H135">
+        <v>2.54</v>
+      </c>
+      <c r="I135">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>0.95</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>8</v>
+      </c>
+      <c r="D136">
+        <v>15</v>
+      </c>
+      <c r="E136">
+        <v>24.89</v>
+      </c>
+      <c r="F136">
+        <v>24.89</v>
+      </c>
+      <c r="G136">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="H136">
+        <v>2.57</v>
+      </c>
+      <c r="I136">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>0.95</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>8</v>
+      </c>
+      <c r="D137">
+        <v>25</v>
+      </c>
+      <c r="E137">
+        <v>28.85</v>
+      </c>
+      <c r="F137">
+        <v>28.85</v>
+      </c>
+      <c r="G137">
+        <v>42.6</v>
+      </c>
+      <c r="H137">
+        <v>2.57</v>
+      </c>
+      <c r="I137">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>0.95</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>8</v>
+      </c>
+      <c r="D138">
+        <v>35</v>
+      </c>
+      <c r="E138">
+        <v>2.38</v>
+      </c>
+      <c r="F138">
+        <v>2.38</v>
+      </c>
+      <c r="G138">
+        <v>41.77</v>
+      </c>
+      <c r="H138">
+        <v>2.6</v>
+      </c>
+      <c r="I138">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>0.95</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>45</v>
+      </c>
+      <c r="E139">
+        <v>2.39</v>
+      </c>
+      <c r="F139">
+        <v>2.39</v>
+      </c>
+      <c r="G139">
+        <v>42.09</v>
+      </c>
+      <c r="H139">
+        <v>3.24</v>
+      </c>
+      <c r="I139">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>0.95</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>9</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>2.42</v>
+      </c>
+      <c r="F140">
+        <v>2.42</v>
+      </c>
+      <c r="G140">
+        <v>43.58</v>
+      </c>
+      <c r="H140">
+        <v>2.59</v>
+      </c>
+      <c r="I140">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>0.95</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>9</v>
+      </c>
+      <c r="D141">
+        <v>15</v>
+      </c>
+      <c r="E141">
+        <v>2.4</v>
+      </c>
+      <c r="F141">
+        <v>2.4</v>
+      </c>
+      <c r="G141">
+        <v>42.02</v>
+      </c>
+      <c r="H141">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I141">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>0.95</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>25</v>
+      </c>
+      <c r="E142">
+        <v>33.76</v>
+      </c>
+      <c r="F142">
+        <v>33.76</v>
+      </c>
+      <c r="G142">
+        <v>41.61</v>
+      </c>
+      <c r="H142">
+        <v>2.6</v>
+      </c>
+      <c r="I142">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>0.95</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>9</v>
+      </c>
+      <c r="D143">
+        <v>35</v>
+      </c>
+      <c r="E143">
+        <v>6.34</v>
+      </c>
+      <c r="F143">
+        <v>6.34</v>
+      </c>
+      <c r="G143">
+        <v>42.92</v>
+      </c>
+      <c r="H143">
+        <v>2.6</v>
+      </c>
+      <c r="I143">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0.95</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>9</v>
+      </c>
+      <c r="D144">
+        <v>45</v>
+      </c>
+      <c r="E144">
+        <v>34.53</v>
+      </c>
+      <c r="F144">
+        <v>34.53</v>
+      </c>
+      <c r="G144">
+        <v>42.31</v>
+      </c>
+      <c r="H144">
+        <v>2.67</v>
+      </c>
+      <c r="I144">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>0.95</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>15.97</v>
+      </c>
+      <c r="F145">
+        <v>15.97</v>
+      </c>
+      <c r="G145">
+        <v>50.13</v>
+      </c>
+      <c r="H145">
+        <v>2.89</v>
+      </c>
+      <c r="I145">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>0.95</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>15</v>
+      </c>
+      <c r="E146">
+        <v>2.38</v>
+      </c>
+      <c r="F146">
+        <v>2.38</v>
+      </c>
+      <c r="G146">
+        <v>45.76</v>
+      </c>
+      <c r="H146">
+        <v>2.85</v>
+      </c>
+      <c r="I146">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>0.95</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>25</v>
+      </c>
+      <c r="E147">
+        <v>2.44</v>
+      </c>
+      <c r="F147">
+        <v>2.44</v>
+      </c>
+      <c r="G147">
+        <v>48.54</v>
+      </c>
+      <c r="H147">
+        <v>2.71</v>
+      </c>
+      <c r="I147">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>0.95</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>35</v>
+      </c>
+      <c r="E148">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F148">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G148">
+        <v>46.58</v>
+      </c>
+      <c r="H148">
+        <v>2.71</v>
+      </c>
+      <c r="I148">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0.95</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>45</v>
+      </c>
+      <c r="E149">
+        <v>2.38</v>
+      </c>
+      <c r="F149">
+        <v>2.38</v>
+      </c>
+      <c r="G149">
+        <v>45.16</v>
+      </c>
+      <c r="H149">
+        <v>2.7</v>
+      </c>
+      <c r="I149">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B150" s="3">
+        <v>10</v>
+      </c>
+      <c r="C150" s="3">
+        <v>8</v>
+      </c>
+      <c r="D150" s="3">
+        <v>4</v>
+      </c>
+      <c r="E150" s="3">
+        <v>20.82</v>
+      </c>
+      <c r="F150" s="3">
+        <v>20.82</v>
+      </c>
+      <c r="G150" s="3">
+        <v>43.61</v>
+      </c>
+      <c r="H150" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="I150" s="3">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B151" s="3">
+        <v>10</v>
+      </c>
+      <c r="C151" s="3">
+        <v>5</v>
+      </c>
+      <c r="D151" s="3">
+        <v>2</v>
+      </c>
+      <c r="E151" s="3">
+        <v>15.21</v>
+      </c>
+      <c r="F151" s="3">
+        <v>15.21</v>
+      </c>
+      <c r="G151" s="3">
+        <v>42.31</v>
+      </c>
+      <c r="H151" s="3">
+        <v>2.77</v>
+      </c>
+      <c r="I151" s="3">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B152" s="3">
+        <v>20</v>
+      </c>
+      <c r="C152" s="3">
+        <v>5</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2</v>
+      </c>
+      <c r="E152" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="F152" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="G152" s="3">
+        <v>42.94</v>
+      </c>
+      <c r="H152" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="I152" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B153" s="3">
+        <v>20</v>
+      </c>
+      <c r="C153" s="3">
+        <v>5</v>
+      </c>
+      <c r="D153" s="3">
+        <v>4</v>
+      </c>
+      <c r="E153" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F153" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G153" s="3">
+        <v>42.64</v>
+      </c>
+      <c r="H153" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="I153" s="3">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B154" s="3">
+        <v>20</v>
+      </c>
+      <c r="C154" s="3">
+        <v>8</v>
+      </c>
+      <c r="D154" s="3">
+        <v>6</v>
+      </c>
+      <c r="E154" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F154" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G154" s="3">
+        <v>44.05</v>
+      </c>
+      <c r="H154" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="I154" s="3">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B155" s="3">
+        <v>15</v>
+      </c>
+      <c r="C155" s="3">
+        <v>5</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2</v>
+      </c>
+      <c r="E155" s="3">
+        <v>23.18</v>
+      </c>
+      <c r="F155" s="3">
+        <v>23.18</v>
+      </c>
+      <c r="G155" s="3">
+        <v>43.36</v>
+      </c>
+      <c r="H155" s="3">
+        <v>2.84</v>
+      </c>
+      <c r="I155" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
